--- a/preliminary_budget.xlsx
+++ b/preliminary_budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boothm\Documents\GitHub\m3dd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\m3dd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F54E887-CC96-4C99-A1CC-F4AA8107F424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BEAD427-A20E-4B7B-A291-FA618E526389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{79E21341-BC3B-4328-98F4-021EF5AD6F1E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{79E21341-BC3B-4328-98F4-021EF5AD6F1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
     <t>hardware</t>
   </si>
   <si>
-    <t>test prints filament</t>
+    <t>test prints filament (engineering plastics)</t>
   </si>
 </sst>
 </file>
@@ -608,18 +608,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F9A703-C151-408A-94E5-66B907D6F944}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +636,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -650,7 +650,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -661,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -675,7 +675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -700,7 +700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -725,7 +725,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -739,7 +739,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -753,7 +753,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -767,7 +767,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -781,7 +781,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -789,7 +789,7 @@
         <v>31.35</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -803,7 +803,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -811,7 +811,7 @@
         <v>15.04</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -825,7 +825,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -839,7 +839,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -853,7 +853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -867,7 +867,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -878,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -892,7 +892,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -906,7 +906,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -920,7 +920,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -931,7 +931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -945,18 +945,18 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
       <c r="B26">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -981,7 +981,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -995,7 +995,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -1064,18 +1064,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>47</v>
       </c>
       <c r="B36">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -1130,22 +1130,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" cm="1">
+        <f t="array" ref="B48">SUM(B2:B47*C2:C47)</f>
+        <v>1626.43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" cm="1">
-        <f t="array" ref="B49">SUM(B2:B47*C2:C47)</f>
-        <v>1526.43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
         <v>64</v>
       </c>
-      <c r="B50">
-        <f>B49+(B49*0.3)</f>
-        <v>1984.3590000000002</v>
+      <c r="B49">
+        <f>B48+(B48*0.3)</f>
+        <v>2114.3589999999999</v>
       </c>
     </row>
   </sheetData>
